--- a/3Match_Puzzle_Game/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/3Match_Puzzle_Game/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -1,25 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27729"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_7972C1F993EDEA23A24A1952631CDB62C529DCE5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9ED96372-57E8-45F2-8C68-E565A9774735}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dialogue" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="61">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,6 +53,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>BackGroundPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>tweenType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -49,183 +65,181 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>selectIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nextScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>이름_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/00001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/배경1</t>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>이름_002</t>
   </si>
   <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 002</t>
+  </si>
+  <si>
+    <t>Character/00002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>이름_003</t>
   </si>
   <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 003</t>
+  </si>
+  <si>
     <t>이름_004</t>
   </si>
   <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 004</t>
+  </si>
+  <si>
     <t>이름_005</t>
   </si>
   <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 005</t>
+  </si>
+  <si>
     <t>이름_006</t>
   </si>
   <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 006</t>
+  </si>
+  <si>
     <t>이름_007</t>
   </si>
   <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 007</t>
+  </si>
+  <si>
     <t>이름_008</t>
   </si>
   <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 008</t>
+  </si>
+  <si>
     <t>이름_009</t>
   </si>
   <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 009</t>
+  </si>
+  <si>
+    <t>Text_004_Scene</t>
+  </si>
+  <si>
     <t>이름_010</t>
   </si>
   <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 010</t>
+  </si>
+  <si>
+    <t>BackGround/00002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>이름_011</t>
   </si>
   <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 011</t>
+  </si>
+  <si>
     <t>이름_012</t>
   </si>
   <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 012</t>
+  </si>
+  <si>
     <t>이름_013</t>
   </si>
   <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 013</t>
+  </si>
+  <si>
     <t>이름_014</t>
   </si>
   <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 014</t>
+  </si>
+  <si>
     <t>이름_015</t>
   </si>
   <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 015</t>
+  </si>
+  <si>
     <t>이름_016</t>
   </si>
   <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 016</t>
+  </si>
+  <si>
     <t>이름_017</t>
   </si>
   <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 017</t>
+  </si>
+  <si>
     <t>이름_018</t>
   </si>
   <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 018</t>
+  </si>
+  <si>
     <t>이름_019</t>
   </si>
   <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 019</t>
+  </si>
+  <si>
+    <t>BackGround/00003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>이름_020</t>
   </si>
   <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 020</t>
+  </si>
+  <si>
+    <t>BackGround/00004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>이름_021</t>
   </si>
   <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 002</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 003</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 004</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 005</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 006</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 007</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 008</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 009</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 010</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 011</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 012</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 013</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 014</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 015</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 016</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 017</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 018</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 019</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 020</t>
-  </si>
-  <si>
     <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 021</t>
   </si>
   <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGroundPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selectIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nextScene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/00001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/00002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGround/00001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Text_001_Scene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGround/00002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGround/00003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGround/00004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,14 +568,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.125" customWidth="1"/>
@@ -573,7 +587,7 @@
     <col min="10" max="10" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -590,22 +604,22 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -613,16 +627,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -634,10 +648,10 @@
         <v>-100</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -645,16 +659,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -666,10 +680,10 @@
         <v>-100</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -677,16 +691,16 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -698,10 +712,10 @@
         <v>-100</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -709,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -730,10 +744,10 @@
         <v>-100</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -741,16 +755,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -762,10 +776,10 @@
         <v>-100</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -773,16 +787,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -794,10 +808,10 @@
         <v>-100</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -805,16 +819,16 @@
         <v>-1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -826,10 +840,10 @@
         <v>-100</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -837,16 +851,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -858,10 +872,10 @@
         <v>-100</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -869,16 +883,16 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -890,10 +904,10 @@
         <v>-100</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -901,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -922,10 +936,10 @@
         <v>-100</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -933,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -954,10 +968,10 @@
         <v>-100</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -965,16 +979,16 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -986,10 +1000,10 @@
         <v>-100</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,16 +1011,16 @@
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -1018,10 +1032,10 @@
         <v>-100</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1029,16 +1043,16 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -1050,10 +1064,10 @@
         <v>-100</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1061,16 +1075,16 @@
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -1082,10 +1096,10 @@
         <v>-100</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1093,16 +1107,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -1114,10 +1128,10 @@
         <v>-100</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1125,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -1146,10 +1160,10 @@
         <v>-100</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1157,16 +1171,16 @@
         <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -1178,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1189,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -1210,10 +1224,10 @@
         <v>-100</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1221,16 +1235,16 @@
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -1242,10 +1256,10 @@
         <v>-100</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1253,16 +1267,16 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -1274,7 +1288,7 @@
         <v>-100</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/3Match_Puzzle_Game/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/3Match_Puzzle_Game/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_7972C1F993EDEA23A24A1952631CDB62C529DCE5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9ED96372-57E8-45F2-8C68-E565A9774735}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6A5229-1EEB-43FD-843E-BF87E0F87771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dialogue" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="62">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,18 +42,150 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>tweenType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nextindex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름_002</t>
+  </si>
+  <si>
+    <t>이름_003</t>
+  </si>
+  <si>
+    <t>이름_004</t>
+  </si>
+  <si>
+    <t>이름_005</t>
+  </si>
+  <si>
+    <t>이름_006</t>
+  </si>
+  <si>
+    <t>이름_007</t>
+  </si>
+  <si>
+    <t>이름_008</t>
+  </si>
+  <si>
+    <t>이름_009</t>
+  </si>
+  <si>
+    <t>이름_010</t>
+  </si>
+  <si>
+    <t>이름_011</t>
+  </si>
+  <si>
+    <t>이름_012</t>
+  </si>
+  <si>
+    <t>이름_013</t>
+  </si>
+  <si>
+    <t>이름_014</t>
+  </si>
+  <si>
+    <t>이름_015</t>
+  </si>
+  <si>
+    <t>이름_016</t>
+  </si>
+  <si>
+    <t>이름_017</t>
+  </si>
+  <si>
+    <t>이름_018</t>
+  </si>
+  <si>
+    <t>이름_019</t>
+  </si>
+  <si>
+    <t>이름_020</t>
+  </si>
+  <si>
+    <t>이름_021</t>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 002</t>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 003</t>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 004</t>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 005</t>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 006</t>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 007</t>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 008</t>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 009</t>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 010</t>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 011</t>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 012</t>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 013</t>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 014</t>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 015</t>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 016</t>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 017</t>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 018</t>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 019</t>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 020</t>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 021</t>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>BackGroundPath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tweenType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nextindex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>selectIndex</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,165 +194,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이름_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Character/00001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Character/00002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_001_Scene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/00002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/00003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/00004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>BackGround/배경1</t>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름_002</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 002</t>
-  </si>
-  <si>
-    <t>Character/00002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름_003</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 003</t>
-  </si>
-  <si>
-    <t>이름_004</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 004</t>
-  </si>
-  <si>
-    <t>이름_005</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 005</t>
-  </si>
-  <si>
-    <t>이름_006</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 006</t>
-  </si>
-  <si>
-    <t>이름_007</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 007</t>
-  </si>
-  <si>
-    <t>이름_008</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 008</t>
-  </si>
-  <si>
-    <t>이름_009</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 009</t>
-  </si>
-  <si>
-    <t>Text_004_Scene</t>
-  </si>
-  <si>
-    <t>이름_010</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 010</t>
-  </si>
-  <si>
-    <t>BackGround/00002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름_011</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 011</t>
-  </si>
-  <si>
-    <t>이름_012</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 012</t>
-  </si>
-  <si>
-    <t>이름_013</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 013</t>
-  </si>
-  <si>
-    <t>이름_014</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 014</t>
-  </si>
-  <si>
-    <t>이름_015</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 015</t>
-  </si>
-  <si>
-    <t>이름_016</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 016</t>
-  </si>
-  <si>
-    <t>이름_017</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 017</t>
-  </si>
-  <si>
-    <t>이름_018</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 018</t>
-  </si>
-  <si>
-    <t>이름_019</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 019</t>
-  </si>
-  <si>
-    <t>BackGround/00003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름_020</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 020</t>
-  </si>
-  <si>
-    <t>BackGround/00004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름_021</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 021</t>
-  </si>
-  <si>
-    <t>Text_001_Scene</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -239,7 +234,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,22 +567,22 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="4" max="4" width="57.375" customWidth="1"/>
+    <col min="3" max="3" width="10.08203125" customWidth="1"/>
+    <col min="4" max="4" width="57.33203125" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="25.125" customWidth="1"/>
-    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.08203125" customWidth="1"/>
+    <col min="7" max="7" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.375" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -604,39 +599,39 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -648,10 +643,10 @@
         <v>-100</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -659,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -680,10 +675,10 @@
         <v>-100</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -691,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -712,10 +707,10 @@
         <v>-100</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -723,16 +718,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -744,10 +739,10 @@
         <v>-100</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -755,16 +750,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -776,10 +771,10 @@
         <v>-100</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -787,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -808,10 +803,10 @@
         <v>-100</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -819,16 +814,16 @@
         <v>-1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -840,10 +835,10 @@
         <v>-100</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -851,16 +846,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -872,10 +867,10 @@
         <v>-100</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -883,16 +878,16 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -904,10 +899,10 @@
         <v>-100</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -915,16 +910,16 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -936,10 +931,10 @@
         <v>-100</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -947,16 +942,16 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -968,10 +963,10 @@
         <v>-100</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -979,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -1000,10 +995,10 @@
         <v>-100</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1011,16 +1006,16 @@
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -1032,10 +1027,10 @@
         <v>-100</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1043,16 +1038,16 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -1064,10 +1059,10 @@
         <v>-100</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1075,16 +1070,16 @@
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -1096,10 +1091,10 @@
         <v>-100</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1107,16 +1102,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -1128,10 +1123,10 @@
         <v>-100</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1139,16 +1134,16 @@
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -1160,10 +1155,10 @@
         <v>-100</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1171,16 +1166,16 @@
         <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -1192,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1203,16 +1198,16 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -1224,10 +1219,10 @@
         <v>-100</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1235,16 +1230,16 @@
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -1256,10 +1251,10 @@
         <v>-100</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1267,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -1288,7 +1283,7 @@
         <v>-100</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/3Match_Puzzle_Game/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/3Match_Puzzle_Game/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6A5229-1EEB-43FD-843E-BF87E0F87771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21105"/>
   </bookViews>
   <sheets>
     <sheet name="dialogue" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="62">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,7 +232,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -563,26 +562,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.08203125" customWidth="1"/>
-    <col min="4" max="4" width="57.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="57.375" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="25.08203125" customWidth="1"/>
-    <col min="7" max="7" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.125" customWidth="1"/>
+    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -614,7 +613,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -646,7 +645,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -678,7 +677,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -710,7 +709,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -742,7 +741,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -774,7 +773,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -806,12 +805,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -838,7 +837,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -870,7 +869,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -902,7 +901,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -934,7 +933,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -966,7 +965,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -998,7 +997,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1030,7 +1029,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1062,7 +1061,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1094,7 +1093,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1126,7 +1125,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1158,7 +1157,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1190,7 +1189,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1222,7 +1221,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1254,7 +1253,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>

--- a/3Match_Puzzle_Game/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/3Match_Puzzle_Game/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F6CE36-7DA2-42F5-94F2-5C0A0408388E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21105"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dialogue" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="64">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,9 +127,6 @@
     <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 004</t>
   </si>
   <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 005</t>
-  </si>
-  <si>
     <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 006</t>
   </si>
   <si>
@@ -141,9 +139,6 @@
     <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 009</t>
   </si>
   <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 010</t>
-  </si>
-  <si>
     <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 011</t>
   </si>
   <si>
@@ -153,18 +148,12 @@
     <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 013</t>
   </si>
   <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 014</t>
-  </si>
-  <si>
     <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 015</t>
   </si>
   <si>
     <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 016</t>
   </si>
   <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 017</t>
-  </si>
-  <si>
     <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 018</t>
   </si>
   <si>
@@ -226,13 +215,37 @@
   </si>
   <si>
     <t>BackGround/배경1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 스테이지4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 스테이지 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 메인2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 다이얼로그 테스트 스테이지 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainScene</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -562,26 +575,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="4" max="4" width="57.375" customWidth="1"/>
+    <col min="3" max="3" width="10.08203125" customWidth="1"/>
+    <col min="4" max="4" width="57.33203125" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="25.125" customWidth="1"/>
-    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.08203125" customWidth="1"/>
+    <col min="7" max="7" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.375" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -598,7 +611,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -607,13 +620,13 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -627,10 +640,10 @@
         <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -642,10 +655,10 @@
         <v>-100</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -659,10 +672,10 @@
         <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -674,10 +687,10 @@
         <v>-100</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -691,10 +704,10 @@
         <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -706,10 +719,10 @@
         <v>-100</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -723,10 +736,10 @@
         <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -738,10 +751,10 @@
         <v>-100</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -752,13 +765,13 @@
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -770,10 +783,10 @@
         <v>-100</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -784,13 +797,13 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -802,10 +815,10 @@
         <v>-100</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -816,13 +829,13 @@
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -834,10 +847,10 @@
         <v>-100</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -848,13 +861,13 @@
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -866,10 +879,10 @@
         <v>-100</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -880,13 +893,13 @@
         <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -898,10 +911,10 @@
         <v>-100</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -912,13 +925,13 @@
         <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -930,10 +943,10 @@
         <v>-100</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -944,13 +957,13 @@
         <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -962,10 +975,10 @@
         <v>-100</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -976,13 +989,13 @@
         <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -994,10 +1007,10 @@
         <v>-100</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1008,13 +1021,13 @@
         <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -1026,10 +1039,10 @@
         <v>-100</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1040,13 +1053,13 @@
         <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -1058,10 +1071,10 @@
         <v>-100</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1072,13 +1085,13 @@
         <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -1090,10 +1103,10 @@
         <v>-100</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1104,13 +1117,13 @@
         <v>22</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -1122,10 +1135,10 @@
         <v>-100</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1136,13 +1149,13 @@
         <v>23</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -1154,10 +1167,10 @@
         <v>-100</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1168,13 +1181,13 @@
         <v>24</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -1186,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1200,13 +1213,13 @@
         <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -1218,10 +1231,10 @@
         <v>-100</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1232,13 +1245,13 @@
         <v>26</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -1250,10 +1263,10 @@
         <v>-100</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1264,13 +1277,13 @@
         <v>27</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -1282,7 +1295,7 @@
         <v>-100</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/3Match_Puzzle_Game/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/3Match_Puzzle_Game/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F6CE36-7DA2-42F5-94F2-5C0A0408388E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="38616" windowHeight="21096"/>
   </bookViews>
   <sheets>
     <sheet name="dialogue" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="56">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,40 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이름_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름_002</t>
-  </si>
-  <si>
-    <t>이름_003</t>
-  </si>
-  <si>
-    <t>이름_004</t>
-  </si>
-  <si>
-    <t>이름_005</t>
-  </si>
-  <si>
-    <t>이름_006</t>
-  </si>
-  <si>
-    <t>이름_007</t>
-  </si>
-  <si>
-    <t>이름_008</t>
-  </si>
-  <si>
-    <t>이름_009</t>
-  </si>
-  <si>
-    <t>이름_010</t>
-  </si>
-  <si>
-    <t>이름_011</t>
-  </si>
-  <si>
     <t>이름_012</t>
   </si>
   <si>
@@ -114,58 +79,6 @@
     <t>이름_021</t>
   </si>
   <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 002</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 003</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 004</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 006</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 007</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 008</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 009</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 011</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 012</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 013</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 015</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 016</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 018</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 019</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 020</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 021</t>
-  </si>
-  <si>
     <t>None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,22 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Text_001_Scene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGround/00002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGround/00003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGround/00004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Stage1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,23 +115,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>(난 한 왕국의 용사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(…였지만 너무 게으르게 산 나머지 왕국에서 쫓겨나고 말았다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(그렇게 숲 속을 떠들던 와중 발견한 것이...)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배낭 그림 보유줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(이 마법배낭이다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(이 배낭에는 얼마나 크고 무거운 물건이든 집어놓을 수 있는 듯 하다)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(이 배낭으로 왕국의 골칫거리였던 몬스터들을 토벌하고)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(왕에게 다시 인정 받겠어)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(몬스터들의 동굴에 다다르려면 일단 이 숲을 통과해야하는데...)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(앗 벌써 앞에 적들이!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/00001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[보석을 얻었다]  보석 이미지 넣기 -&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(휴.. 마법배낭이 없었다면 힘든 전투였을거다)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(그 보다 저 앞 쪽은 뭔가 상태가 이상한 것 같은데?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(이 숲은 몬스터들에 의해 많이 오염되어있는 것 같다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(더 강한 적들이 나을테니 조심하자!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/배경2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(몬스터들을 없애자 숲이 평소대로의 푸릇푸릇한 모습으로 돌아왔다)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/배경3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(벌써 몬스터들의 동굴 앞에 도착했다)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(이 동굴에 있는 몬스터들을 모두 토벌하고, 비싼 광석들을 가져가면 왕이 다시 나를 받아주겠지?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(너무 춥고 어둡다...)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(어서 포근하고 안락한 왕국으로 돌아가고싶다)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(..라고 생각하자마자 몬스터가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(내가 해냈다!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Stage4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 스테이지4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 스테이지 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 메인2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 스테이지 1</t>
+    <t>Stage7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -245,7 +238,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -575,26 +568,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.08203125" customWidth="1"/>
-    <col min="4" max="4" width="57.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" customWidth="1"/>
+    <col min="4" max="4" width="57.296875" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="25.08203125" customWidth="1"/>
-    <col min="7" max="7" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25.09765625" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -611,7 +604,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -620,13 +613,13 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -634,16 +627,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -655,27 +648,27 @@
         <v>-100</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -687,10 +680,10 @@
         <v>-100</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -698,16 +691,16 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -719,27 +712,27 @@
         <v>-100</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -751,10 +744,10 @@
         <v>-100</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -762,16 +755,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -783,27 +776,27 @@
         <v>-100</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -815,10 +808,10 @@
         <v>-100</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -826,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -847,27 +840,27 @@
         <v>-100</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -879,10 +872,10 @@
         <v>-100</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -890,16 +883,16 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -911,27 +904,27 @@
         <v>-100</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -943,10 +936,10 @@
         <v>-100</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -954,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -975,27 +968,27 @@
         <v>-100</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -1007,10 +1000,10 @@
         <v>-100</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1018,16 +1011,16 @@
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -1039,27 +1032,27 @@
         <v>-100</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -1071,10 +1064,10 @@
         <v>-100</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,16 +1075,16 @@
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -1103,27 +1096,27 @@
         <v>-100</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -1135,10 +1128,10 @@
         <v>-100</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1146,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -1167,10 +1160,10 @@
         <v>-100</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1178,16 +1171,16 @@
         <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -1196,13 +1189,13 @@
         <v>18</v>
       </c>
       <c r="I19" s="1">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1210,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -1231,10 +1224,10 @@
         <v>-100</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1242,16 +1235,16 @@
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -1263,10 +1256,10 @@
         <v>-100</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1274,28 +1267,124 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>-100</v>
+        <v>21</v>
       </c>
       <c r="I22" s="1">
         <v>-100</v>
       </c>
       <c r="J22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>22</v>
+      </c>
+      <c r="I23" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>23</v>
+      </c>
+      <c r="I24" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>24</v>
+      </c>
+      <c r="I25" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/3Match_Puzzle_Game/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/3Match_Puzzle_Game/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="59">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,6 +232,17 @@
   </si>
   <si>
     <t>MainScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(대사들)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1340,7 +1351,7 @@
         <v>21</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -1352,7 +1363,7 @@
         <v>-100</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
@@ -1384,6 +1395,102 @@
         <v>-100</v>
       </c>
       <c r="J25" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>25</v>
+      </c>
+      <c r="I26" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>26</v>
+      </c>
+      <c r="I27" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>27</v>
+      </c>
+      <c r="I28" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>55</v>
       </c>
     </row>

--- a/3Match_Puzzle_Game/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/3Match_Puzzle_Game/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB72B1B-3181-4384-A0D7-BC3DE23B7792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="38616" windowHeight="21096"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dialogue" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="60">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,13 +244,17 @@
   </si>
   <si>
     <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Dialog/왕 기본표정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -579,26 +584,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" customWidth="1"/>
-    <col min="4" max="4" width="57.296875" customWidth="1"/>
+    <col min="3" max="3" width="10.08203125" customWidth="1"/>
+    <col min="4" max="4" width="57.33203125" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="25.09765625" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.296875" customWidth="1"/>
+    <col min="6" max="6" width="25.08203125" customWidth="1"/>
+    <col min="7" max="7" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -630,7 +635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -662,12 +667,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>36</v>
@@ -676,7 +681,7 @@
         <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>17</v>
@@ -694,7 +699,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -726,7 +731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -758,7 +763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -790,7 +795,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -822,7 +827,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -854,7 +859,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -886,7 +891,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -918,7 +923,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -950,7 +955,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -982,7 +987,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1014,7 +1019,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1046,7 +1051,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1078,7 +1083,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1110,7 +1115,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1142,7 +1147,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1174,7 +1179,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1206,7 +1211,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1238,7 +1243,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1270,7 +1275,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1302,7 +1307,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1334,7 +1339,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1366,7 +1371,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1398,7 +1403,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1430,7 +1435,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1462,7 +1467,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>26</v>
       </c>

--- a/3Match_Puzzle_Game/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/3Match_Puzzle_Game/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB72B1B-3181-4384-A0D7-BC3DE23B7792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3ADE2F-C08A-40E5-A984-4C46052EAB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -588,7 +588,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/3Match_Puzzle_Game/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/3Match_Puzzle_Game/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3ADE2F-C08A-40E5-A984-4C46052EAB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5600BC6-DC3E-4EE3-BC54-41598DAD1B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="51">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,36 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이름_012</t>
-  </si>
-  <si>
-    <t>이름_013</t>
-  </si>
-  <si>
-    <t>이름_014</t>
-  </si>
-  <si>
-    <t>이름_015</t>
-  </si>
-  <si>
-    <t>이름_016</t>
-  </si>
-  <si>
-    <t>이름_017</t>
-  </si>
-  <si>
-    <t>이름_018</t>
-  </si>
-  <si>
-    <t>이름_019</t>
-  </si>
-  <si>
-    <t>이름_020</t>
-  </si>
-  <si>
-    <t>이름_021</t>
-  </si>
-  <si>
     <t>None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,22 +66,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Character/00001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/00002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Stage1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Character/01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BackGround/배경1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -160,14 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BackGround/00001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[보석을 얻었다]  보석 이미지 넣기 -&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>보석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -247,7 +197,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Character/Dialog/왕 기본표정</t>
+    <t>Character/보스1보석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/배낭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배낭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Dialog/기사 기본표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/보스2보석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/보스3보석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[보석을 얻었다]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,7 +562,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -620,7 +594,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -629,10 +603,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -643,16 +617,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -664,7 +638,7 @@
         <v>-100</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
@@ -672,19 +646,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -696,7 +670,7 @@
         <v>-100</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
@@ -707,16 +681,16 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -728,7 +702,7 @@
         <v>-100</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
@@ -739,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -760,7 +734,7 @@
         <v>-100</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
@@ -771,16 +745,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -792,7 +766,7 @@
         <v>-100</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
@@ -803,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -824,7 +798,7 @@
         <v>-100</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
@@ -835,16 +809,16 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -856,7 +830,7 @@
         <v>-100</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
@@ -867,16 +841,16 @@
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -888,7 +862,7 @@
         <v>-100</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
@@ -899,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -920,7 +894,7 @@
         <v>-100</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
@@ -931,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -952,7 +926,7 @@
         <v>-100</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
@@ -960,19 +934,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -984,7 +958,7 @@
         <v>-100</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
@@ -995,16 +969,16 @@
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -1016,7 +990,7 @@
         <v>-100</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
@@ -1027,16 +1001,16 @@
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -1048,7 +1022,7 @@
         <v>-100</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
@@ -1059,16 +1033,16 @@
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -1080,7 +1054,7 @@
         <v>-100</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
@@ -1091,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -1112,7 +1086,7 @@
         <v>-100</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
@@ -1120,19 +1094,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -1144,7 +1118,7 @@
         <v>-100</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
@@ -1155,16 +1129,16 @@
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -1176,7 +1150,7 @@
         <v>-100</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
@@ -1187,16 +1161,16 @@
         <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -1208,7 +1182,7 @@
         <v>-100</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
@@ -1219,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -1240,7 +1214,7 @@
         <v>-100</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
@@ -1251,16 +1225,16 @@
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -1272,7 +1246,7 @@
         <v>-100</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
@@ -1283,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -1304,7 +1278,7 @@
         <v>-100</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
@@ -1315,16 +1289,16 @@
         <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -1336,7 +1310,7 @@
         <v>-100</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
@@ -1344,19 +1318,19 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -1368,7 +1342,7 @@
         <v>-100</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
@@ -1379,16 +1353,16 @@
         <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -1400,7 +1374,7 @@
         <v>-100</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
@@ -1411,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -1432,7 +1406,7 @@
         <v>-100</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
@@ -1443,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -1464,7 +1438,7 @@
         <v>-100</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
@@ -1475,16 +1449,16 @@
         <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -1496,7 +1470,7 @@
         <v>-100</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/3Match_Puzzle_Game/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/3Match_Puzzle_Game/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5600BC6-DC3E-4EE3-BC54-41598DAD1B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FE1308-AE9B-46D8-B7E2-C454B2CF3F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="4440" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dialogue" sheetId="1" r:id="rId1"/>
@@ -197,10 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Character/보스1보석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Character/배낭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -213,15 +209,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Character/보스2보석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/보스3보석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[보석을 얻었다]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/보스1 보석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/보스2 보석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/보스3 보석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,7 +562,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -623,7 +623,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
@@ -655,7 +655,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -687,7 +687,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
@@ -713,13 +713,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>7</v>
@@ -751,7 +751,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>7</v>
@@ -783,7 +783,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>7</v>
@@ -815,7 +815,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>7</v>
@@ -847,7 +847,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>7</v>
@@ -879,7 +879,7 @@
         <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>12</v>
@@ -911,7 +911,7 @@
         <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>12</v>
@@ -940,10 +940,10 @@
         <v>24</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>12</v>
@@ -975,7 +975,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>7</v>
@@ -1007,7 +1007,7 @@
         <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>7</v>
@@ -1039,7 +1039,7 @@
         <v>27</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>29</v>
@@ -1071,7 +1071,7 @@
         <v>28</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>7</v>
@@ -1100,10 +1100,10 @@
         <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>29</v>
@@ -1135,7 +1135,7 @@
         <v>30</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>7</v>
@@ -1167,7 +1167,7 @@
         <v>32</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>31</v>
@@ -1199,7 +1199,7 @@
         <v>33</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>7</v>
@@ -1231,7 +1231,7 @@
         <v>34</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>7</v>
@@ -1263,7 +1263,7 @@
         <v>35</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>7</v>
@@ -1295,7 +1295,7 @@
         <v>36</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>7</v>
@@ -1324,10 +1324,10 @@
         <v>24</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>31</v>
@@ -1359,7 +1359,7 @@
         <v>37</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>7</v>
@@ -1391,7 +1391,7 @@
         <v>41</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>7</v>
@@ -1423,7 +1423,7 @@
         <v>41</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>7</v>
@@ -1455,7 +1455,7 @@
         <v>41</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>7</v>

--- a/3Match_Puzzle_Game/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/3Match_Puzzle_Game/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FE1308-AE9B-46D8-B7E2-C454B2CF3F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="4440" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="4440" windowWidth="28800" windowHeight="15375"/>
   </bookViews>
   <sheets>
     <sheet name="dialogue" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="67">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,13 +221,77 @@
   </si>
   <si>
     <t>Character/보스3 보석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(기사가 왕궁에 들어온다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부르셨습니까 폐하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐하의 말씀이 맞습니다. 그럼 이 기사를 숲으로 내보시는게 어떠 신가요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋소! 여봐라 당장 이 기사를 숲으로 보내거라!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(기사가 쫓겨난다)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Dialog/기사 기본표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래. 내가 널 불렀다. 요즘 너무 일을 안하는거 같은데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무엇을 하고 있는 것이야! 나라를 위해 일을 하라고 널 기사로 임명했는데 일을 안한다면 넌 이 왕국에 있을 자격이 없다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Dialog/왕 기본표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Dialog/왕 화남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Dialog/왕 화남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Dialog/왕비 화남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Dialog/기사 놀람</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -558,26 +621,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.08203125" customWidth="1"/>
-    <col min="4" max="4" width="57.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="57.375" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="25.08203125" customWidth="1"/>
-    <col min="7" max="7" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25.125" customWidth="1"/>
+    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -609,7 +672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -620,10 +683,10 @@
         <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
@@ -641,7 +704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -652,7 +715,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>46</v>
@@ -673,7 +736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -681,13 +744,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
@@ -705,7 +768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -713,13 +776,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>7</v>
@@ -737,7 +800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -745,13 +808,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>7</v>
@@ -769,7 +832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -777,13 +840,13 @@
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>7</v>
@@ -801,21 +864,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>7</v>
@@ -833,7 +894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -844,13 +905,13 @@
         <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -865,7 +926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -876,13 +937,13 @@
         <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -897,7 +958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -908,13 +969,13 @@
         <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -926,27 +987,27 @@
         <v>-100</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -961,7 +1022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -972,7 +1033,7 @@
         <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>46</v>
@@ -993,7 +1054,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1004,7 +1065,7 @@
         <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>46</v>
@@ -1025,7 +1086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1036,13 +1097,13 @@
         <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -1057,7 +1118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1068,7 +1129,7 @@
         <v>23</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>46</v>
@@ -1086,27 +1147,27 @@
         <v>-100</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -1121,7 +1182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1132,13 +1193,13 @@
         <v>23</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -1150,27 +1211,27 @@
         <v>-100</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -1185,7 +1246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1196,7 +1257,7 @@
         <v>23</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>46</v>
@@ -1217,7 +1278,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1228,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>46</v>
@@ -1249,7 +1310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1260,13 +1321,13 @@
         <v>23</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -1281,7 +1342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1292,7 +1353,7 @@
         <v>23</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>46</v>
@@ -1310,10 +1371,10 @@
         <v>-100</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1327,10 +1388,10 @@
         <v>47</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -1342,10 +1403,10 @@
         <v>-100</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1356,7 +1417,7 @@
         <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>46</v>
@@ -1374,10 +1435,10 @@
         <v>-100</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1388,13 +1449,13 @@
         <v>23</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -1406,10 +1467,10 @@
         <v>-100</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1420,7 +1481,7 @@
         <v>23</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>46</v>
@@ -1438,10 +1499,10 @@
         <v>-100</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1452,7 +1513,7 @@
         <v>23</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>46</v>
@@ -1470,6 +1531,230 @@
         <v>-100</v>
       </c>
       <c r="J28" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>28</v>
+      </c>
+      <c r="I29" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>29</v>
+      </c>
+      <c r="I30" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>30</v>
+      </c>
+      <c r="I31" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>31</v>
+      </c>
+      <c r="I32" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>32</v>
+      </c>
+      <c r="I33" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>33</v>
+      </c>
+      <c r="I34" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>34</v>
+      </c>
+      <c r="I35" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>40</v>
       </c>
     </row>

--- a/3Match_Puzzle_Game/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/3Match_Puzzle_Game/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8587D70F-0E4D-43C5-A013-A93783AF58AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="4440" windowWidth="28800" windowHeight="15375"/>
+    <workbookView xWindow="4440" yWindow="4440" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dialogue" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="68">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -285,13 +286,17 @@
   </si>
   <si>
     <t>Character/Dialog/기사 놀람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/왕궁 배경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -621,26 +626,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="4" max="4" width="57.375" customWidth="1"/>
+    <col min="3" max="3" width="10.08203125" customWidth="1"/>
+    <col min="4" max="4" width="57.33203125" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="25.125" customWidth="1"/>
-    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="25.08203125" customWidth="1"/>
+    <col min="7" max="7" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -672,7 +677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -689,7 +694,7 @@
         <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -704,7 +709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -736,7 +741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -768,7 +773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -800,7 +805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -832,7 +837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -864,7 +869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -894,7 +899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -926,7 +931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -958,7 +963,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -990,7 +995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1022,7 +1027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1054,7 +1059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1086,7 +1091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1118,7 +1123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1150,7 +1155,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1182,7 +1187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1214,7 +1219,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1246,7 +1251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1278,7 +1283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1310,7 +1315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1342,7 +1347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1374,7 +1379,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1406,7 +1411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1438,7 +1443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1470,7 +1475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1502,7 +1507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1534,7 +1539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1566,7 +1571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1598,7 +1603,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1630,7 +1635,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1662,7 +1667,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1694,7 +1699,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1726,7 +1731,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>33</v>
       </c>

--- a/3Match_Puzzle_Game/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/3Match_Puzzle_Game/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8587D70F-0E4D-43C5-A013-A93783AF58AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77900BDD-0994-408F-AA64-AD221B64DEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="4440" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dialogue" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="83">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,10 +186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(대사들)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
@@ -290,6 +286,70 @@
   </si>
   <si>
     <t>BackGround/왕궁 배경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(왕궁에서는 기사가 던전에 보스를 쓰려뜨렸다는 이야기가 퍼진다)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 게으른 기사가 보스를 잡았다고?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여봐라 당장 기사를 데려와라!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(기사가옴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신이 보스들을 잡았다는것이 사실인가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네! 제가 보스들을 잡았습니다. 이걸 봐주시죠!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(보석 3개를 보여준다)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소문이 진짜였군!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕궁에 위협이 되던 보스들을 잡다니! 넌 우리의 영웅기사야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐하의 뜻입니다. 앞으로도 열심히 기사일을 해주시길 바래요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네! 폐하의 명을 따릅니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(기사는 다시 왕궁에 위대한 기사가 되었습니다!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Dialog/왕 놀람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Dialog/왕비 놀람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Dialog/기사 웃음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Dialog/왕비 기본표정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q27:Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -688,13 +748,13 @@
         <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -720,10 +780,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -749,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
@@ -781,13 +841,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>7</v>
@@ -813,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>7</v>
@@ -845,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>7</v>
@@ -878,10 +938,10 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>7</v>
@@ -913,7 +973,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>12</v>
@@ -945,7 +1005,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>7</v>
@@ -977,7 +1037,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>7</v>
@@ -1003,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>7</v>
@@ -1041,7 +1101,7 @@
         <v>17</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>7</v>
@@ -1073,7 +1133,7 @@
         <v>18</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>7</v>
@@ -1105,7 +1165,7 @@
         <v>19</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>7</v>
@@ -1137,7 +1197,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>7</v>
@@ -1169,7 +1229,7 @@
         <v>21</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>12</v>
@@ -1201,7 +1261,7 @@
         <v>22</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>12</v>
@@ -1230,10 +1290,10 @@
         <v>24</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>12</v>
@@ -1265,7 +1325,7 @@
         <v>25</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>7</v>
@@ -1297,7 +1357,7 @@
         <v>26</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>7</v>
@@ -1329,7 +1389,7 @@
         <v>27</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>29</v>
@@ -1361,7 +1421,7 @@
         <v>28</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>7</v>
@@ -1390,10 +1450,10 @@
         <v>24</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>29</v>
@@ -1425,7 +1485,7 @@
         <v>30</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>7</v>
@@ -1457,7 +1517,7 @@
         <v>32</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>31</v>
@@ -1489,7 +1549,7 @@
         <v>33</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>7</v>
@@ -1521,7 +1581,7 @@
         <v>34</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>7</v>
@@ -1553,7 +1613,7 @@
         <v>35</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>7</v>
@@ -1585,7 +1645,7 @@
         <v>36</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>7</v>
@@ -1608,16 +1668,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>31</v>
@@ -1632,24 +1692,18 @@
         <v>-100</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="1">
-        <v>0</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>7</v>
@@ -1664,7 +1718,7 @@
         <v>-100</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.45">
@@ -1678,10 +1732,10 @@
         <v>23</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>7</v>
@@ -1696,7 +1750,7 @@
         <v>-100</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.45">
@@ -1706,17 +1760,15 @@
       <c r="B34" s="1">
         <v>0</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
@@ -1728,7 +1780,7 @@
         <v>-100</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
@@ -1739,13 +1791,13 @@
         <v>0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>7</v>
@@ -1760,6 +1812,317 @@
         <v>-100</v>
       </c>
       <c r="J35" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>35</v>
+      </c>
+      <c r="I36" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>36</v>
+      </c>
+      <c r="I37" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>37</v>
+      </c>
+      <c r="I38" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>38</v>
+      </c>
+      <c r="I39" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>39</v>
+      </c>
+      <c r="I40" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>40</v>
+      </c>
+      <c r="I41" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>41</v>
+      </c>
+      <c r="I42" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>42</v>
+      </c>
+      <c r="I43" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>43</v>
+      </c>
+      <c r="I44" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>44</v>
+      </c>
+      <c r="I45" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J45" s="1" t="s">
         <v>40</v>
       </c>
     </row>
